--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76B1B5-F27F-4063-87E9-34BA321CFDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F019EB-5122-4D59-BA02-CD3465EBFA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>FString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Blueprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_BaseCharacter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DEC8D7-40B5-4EC8-A742-AFE3504F4A5A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,6 +479,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -479,16 +495,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741F188C-2F6E-4E9C-90FA-0D3BDE46E14C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,6 +540,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F019EB-5122-4D59-BA02-CD3465EBFA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40899657-5CB1-45D9-96EE-7E14A968D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
     <sheet name="BasePath_BP_File" sheetId="2" r:id="rId2"/>
+    <sheet name="BasePath_Level_File" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,11 +76,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/Blueprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BP_BaseCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogoWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_File_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalWorld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_EaglePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Npc/Blueprints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/BasePlayer/Blueprints</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DEC8D7-40B5-4EC8-A742-AFE3504F4A5A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -481,10 +506,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>10000</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -495,10 +536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741F188C-2F6E-4E9C-90FA-0D3BDE46E14C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -542,13 +583,88 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>301</v>
+      </c>
+      <c r="B6">
+        <v>10001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10001</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CA0350-59A7-4C48-9A0B-4D64680BDFBA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40899657-5CB1-45D9-96EE-7E14A968D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70300CE5-91D4-4C97-9B4D-208F3A8FE0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
     <sheet name="BasePath_BP_File" sheetId="2" r:id="rId2"/>
     <sheet name="BasePath_Level_File" sheetId="3" r:id="rId3"/>
+    <sheet name="BasePath_Img_File" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +106,46 @@
   </si>
   <si>
     <t>Unit/BasePlayer/Blueprints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget/BuiltInWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget/BuiltInWidget/WorldMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldMapWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldMapIconWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Img_File_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Img_File_Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EagleIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget/BuiltInWidget/WorldMap/Textures</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -213,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -319,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DEC8D7-40B5-4EC8-A742-AFE3504F4A5A}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,25 +547,49 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1000</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10000</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>10001</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -539,13 +604,13 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,14 +657,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>301</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>10001</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -671,4 +758,82 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F66EDF-0680-471A-9264-F75B5A7652FA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70300CE5-91D4-4C97-9B4D-208F3A8FE0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15292305-4776-4451-93AB-7517EFFCC816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BP_EaglePoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/Npc/Blueprints</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +140,34 @@
   </si>
   <si>
     <t>Widget/BuiltInWidget/WorldMap/Textures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget/BuiltInWidget/Interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcInteractionWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget/BuiltInWidget/Interaction/Textures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeleportIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_Base_Npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcInteractionItemWidget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DEC8D7-40B5-4EC8-A742-AFE3504F4A5A}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,7 +572,7 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +580,7 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,31 +588,47 @@
         <v>103</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1000</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>10000</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>10001</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -603,14 +641,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741F188C-2F6E-4E9C-90FA-0D3BDE46E14C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,7 +703,7 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -676,7 +714,29 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,7 +747,7 @@
         <v>10001</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,10 +822,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F66EDF-0680-471A-9264-F75B5A7652FA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -784,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -801,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -812,7 +872,7 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -826,9 +886,37 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15292305-4776-4451-93AB-7517EFFCC816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E0156C-B420-46CB-A449-D0A3AF898B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,14 @@
   </si>
   <si>
     <t>NpcInteractionItemWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemPopup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget/BuiltInWidget/SystemWidget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DEC8D7-40B5-4EC8-A742-AFE3504F4A5A}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,33 +615,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>1000</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>10000</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>10001</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -641,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741F188C-2F6E-4E9C-90FA-0D3BDE46E14C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -748,6 +765,17 @@
       </c>
       <c r="C10" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">

--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E0156C-B420-46CB-A449-D0A3AF898B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83696D11-C1AD-4B72-B56E-907C8CD33F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{37E28BB5-F263-4C28-8728-B975D268D743}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,30 @@
   </si>
   <si>
     <t>Widget/BuiltInWidget/SystemWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainHudWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget/MainHud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget/MainHud/Textures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlankImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExitImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DEC8D7-40B5-4EC8-A742-AFE3504F4A5A}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -613,6 +637,22 @@
       </c>
       <c r="B8" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +699,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -758,12 +798,23 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>301</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>10001</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -797,10 +848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CA0350-59A7-4C48-9A0B-4D64680BDFBA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -842,18 +893,30 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F66EDF-0680-471A-9264-F75B5A7652FA}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -948,6 +1011,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
